--- a/vendor/mysql_audo_init/interface_info.xlsx
+++ b/vendor/mysql_audo_init/interface_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>is_need_encrypt</t>
   </si>
@@ -120,6 +120,9 @@
   <si>
     <t>{'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s', 'email': ''}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/source/queryinfo/</t>
   </si>
 </sst>
 </file>
@@ -465,16 +468,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
     <col min="8" max="8" width="43.25" customWidth="1"/>
@@ -536,8 +540,11 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -568,8 +575,11 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -600,8 +610,11 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -632,8 +645,11 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>

--- a/vendor/mysql_audo_init/interface_info.xlsx
+++ b/vendor/mysql_audo_init/interface_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>is_need_encrypt</t>
   </si>
@@ -75,61 +75,289 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>REMOTE</t>
+  </si>
+  <si>
+    <t>/source/queryinfo/</t>
+  </si>
+  <si>
+    <t>personal_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicom_mobile_identity_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>court_zhixing_a_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecom_mobile_online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geo_location</t>
+  </si>
+  <si>
+    <t>{'data_identity': 'tianyan_black'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': ''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'personal_info'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_agency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'loan_agency'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agentg_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'agentg_black'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianwang_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'tianwang_black'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianwang_multi_loan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'tianwang_multi_loan'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianyan_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>court_shixin_a_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'court_shixin_a_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_black_a_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'net_black_a_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecom_mobile_identity_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'telecom_mobile_identity_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'unicom_mobile_identity_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yd_mobile_identity_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'yd_mobile_identity_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>china_mobile_ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'china_mobile_ability'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_info_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'negative_info_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianwang_gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'tianwang_gray'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'court_zhixing_a_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'mobile_locale'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yd_mobile_online_time_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'yd_mobile_online_time_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicome_mobile_online_time_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人基本信息查询</t>
+  </si>
+  <si>
+    <t>贷款中介查询</t>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构G黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天网黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天网多头贷款查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天眼黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法院失信被执行人查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网贷黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信手机号三元素认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通手机号三元素认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动手机号三元素认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动手机信用查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人不良信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>天网灰名单查询</t>
-  </si>
-  <si>
-    <t>tianwang_gray</t>
-  </si>
-  <si>
-    <t>REMOTE</t>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianwang_gray'}</t>
-  </si>
-  <si>
-    <t>天网黑名单查询</t>
-  </si>
-  <si>
-    <t>tianwang_black</t>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianwang_black'}</t>
-  </si>
-  <si>
-    <t>天网多头贷款查询</t>
-  </si>
-  <si>
-    <t>tianwang_multi_loan</t>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianwang_multi_loan'}</t>
-  </si>
-  <si>
-    <t>天眼黑名单查询</t>
-  </si>
-  <si>
-    <t>tianyan_black</t>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianyan_black'}</t>
-  </si>
-  <si>
-    <t>{'mobile': '%(mobile)s',}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法院被执行人查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码归属地查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动号码在网时长查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通号码在网时长查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信号码在网时长查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬度获取地理位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s', 'email': ''}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/source/queryinfo/</t>
+  </si>
+  <si>
+    <t>{'entity_name': '%(name)s', 'entity_id': '%(card_id)s'}</t>
+  </si>
+  <si>
+    <t>{'entity_name': '%(name)s', 'entity_id': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'gps_longitude': '%(longitude)s', 'gps_latitude': '%(latitude)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,21 +373,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -168,9 +423,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,30 +733,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="45.375" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
     <col min="8" max="8" width="43.25" customWidth="1"/>
-    <col min="9" max="9" width="73.75" customWidth="1"/>
+    <col min="9" max="9" width="107.875" customWidth="1"/>
     <col min="10" max="10" width="17.375" customWidth="1"/>
     <col min="11" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="13.875" customWidth="1"/>
     <col min="13" max="13" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -530,145 +798,748 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
+      <c r="I21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75">
+      <c r="I22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vendor/mysql_audo_init/interface_info.xlsx
+++ b/vendor/mysql_audo_init/interface_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
   <si>
     <t>is_need_encrypt</t>
   </si>
@@ -78,14 +78,268 @@
     <t>REMOTE</t>
   </si>
   <si>
-    <t>/source/queryinfo/</t>
+    <t>unicom_mobile_identity_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecom_mobile_online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'tianyan_black'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': ''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'personal_info'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'loan_agency'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'agentg_black'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'tianwang_black'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'tianwang_multi_loan'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'court_shixin_a_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_black_a_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'net_black_a_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'telecom_mobile_identity_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'unicom_mobile_identity_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'yd_mobile_identity_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'china_mobile_ability'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'negative_info_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianwang_gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'tianwang_gray'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'court_zhixing_a_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'mobile_locale'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yd_mobile_online_time_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'data_identity': 'yd_mobile_online_time_s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人基本信息查询</t>
+  </si>
+  <si>
+    <t>贷款中介查询</t>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构G黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天网黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天网多头贷款查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天眼黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法院失信被执行人查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网贷黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信手机号三元素认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通手机号三元素认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动手机号三元素认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动手机信用查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人不良信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天网灰名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法院被执行人查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码归属地查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动号码在网时长查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通号码在网时长查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信号码在网时长查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬度获取地理位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s', 'email': ''}</t>
+  </si>
+  <si>
+    <t>{'entity_name': '%(name)s', 'entity_id': '%(card_id)s'}</t>
+  </si>
+  <si>
+    <t>{'entity_name': '%(name)s', 'entity_id': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'gps_longitude': '%(longitude)s', 'gps_latitude': '%(latitude)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>personal_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unicom_mobile_identity_s</t>
+    <t>/api/rule/gateway/personal_info/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_agency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/loan_agency/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agentg_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianwang_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianwang_multi_loan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianyan_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>court_shixin_a_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecom_mobile_identity_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yd_mobile_identity_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>china_mobile_ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_info_s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,263 +347,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>telecom_mobile_online</t>
+    <t>mobile_locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicome_mobile_online_time_s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>geo_location</t>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianyan_black'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': ''}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'personal_info'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_agency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'loan_agency'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agentg_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'agentg_black'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianwang_black'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_multi_loan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianwang_multi_loan'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianyan_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>court_shixin_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'court_shixin_a_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net_black_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'net_black_a_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telecom_mobile_identity_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'telecom_mobile_identity_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'unicom_mobile_identity_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yd_mobile_identity_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'yd_mobile_identity_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>china_mobile_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'china_mobile_ability'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negative_info_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'negative_info_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_gray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianwang_gray'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'court_zhixing_a_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile_locale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'mobile_locale'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yd_mobile_online_time_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'yd_mobile_online_time_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unicome_mobile_online_time_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人基本信息查询</t>
-  </si>
-  <si>
-    <t>贷款中介查询</t>
-  </si>
-  <si>
-    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobile': '%(mobile)s'}</t>
-  </si>
-  <si>
-    <t>{'mobile': '%(mobile)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
-  </si>
-  <si>
-    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
-  </si>
-  <si>
-    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构G黑名单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天网黑名单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天网多头贷款查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天眼黑名单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法院失信被执行人查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网贷黑名单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电信手机号三元素认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联通手机号三元素认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动手机号三元素认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动手机信用查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人不良信息查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天网灰名单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法院被执行人查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码归属地查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动号码在网时长查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联通号码在网时长查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电信号码在网时长查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经纬度获取地理位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s', 'email': ''}</t>
-  </si>
-  <si>
-    <t>{'entity_name': '%(name)s', 'entity_id': '%(card_id)s'}</t>
-  </si>
-  <si>
-    <t>{'entity_name': '%(name)s', 'entity_id': '%(card_id)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobile': '%(mobile)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'gps_longitude': '%(longitude)s', 'gps_latitude': '%(latitude)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/geo_location/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/telecom_mobile_online/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/unicome_mobile_online_time_s/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/yd_mobile_online_time_s/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/mobile_locale/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/court_zhixing_a_s/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/tianwang_gray/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/negative_info_s/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/yd_mobile_identity_s/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/china_mobile_ability/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/unicom_mobile_identity_s/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/telecom_mobile_identity_s/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/net_black_a_s/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/court_shixin_a_s/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/tianyan_black/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/tianwang_multi_loan/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/tianwang_black/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/rule/gateway/agentg_black/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,8 +814,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C26" sqref="C26"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -803,26 +881,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -840,26 +918,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -877,26 +955,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -914,26 +992,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -951,26 +1029,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -988,26 +1066,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1025,26 +1103,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1062,26 +1140,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -1099,26 +1177,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1136,26 +1214,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -1173,26 +1251,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1210,26 +1288,26 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -1247,26 +1325,26 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1284,26 +1362,26 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -1321,26 +1399,26 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -1358,26 +1436,26 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -1395,26 +1473,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -1432,26 +1510,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -1469,26 +1547,26 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -1506,26 +1584,26 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>

--- a/vendor/mysql_audo_init/interface_info.xlsx
+++ b/vendor/mysql_audo_init/interface_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16215" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
   <si>
     <t>is_need_encrypt</t>
   </si>
@@ -78,356 +78,373 @@
     <t>REMOTE</t>
   </si>
   <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_agency</t>
+  </si>
+  <si>
+    <t>tianwang_black</t>
+  </si>
+  <si>
+    <t>tianwang_multi_loan</t>
+  </si>
+  <si>
+    <t>court_shixin_a_s</t>
+  </si>
+  <si>
+    <t>negative_info_s</t>
+  </si>
+  <si>
+    <t>tianwang_gray</t>
+  </si>
+  <si>
+    <t>court_zhixing_a_s</t>
+  </si>
+  <si>
+    <t>unicome_mobile_online_time_s</t>
+  </si>
+  <si>
+    <t>yd_mobile_online_time_s</t>
+  </si>
+  <si>
+    <t>trustutn_loan_overdue</t>
+  </si>
+  <si>
+    <t>trustutn_loan_blacklist</t>
+  </si>
+  <si>
+    <t>multi_loan_91</t>
+  </si>
+  <si>
+    <t>apply_data</t>
+  </si>
+  <si>
+    <t>personal_info</t>
+  </si>
+  <si>
+    <t>loan_history</t>
+  </si>
+  <si>
+    <t>portrait_data</t>
+  </si>
+  <si>
+    <t>trustutn_loan_loanmsg</t>
+  </si>
+  <si>
+    <t>trustutn_loan_phone</t>
+  </si>
+  <si>
+    <t>telecom_mobile_identity_s</t>
+  </si>
+  <si>
+    <t>yd_mobile_identity_s</t>
+  </si>
+  <si>
+    <t>cc_credit</t>
+  </si>
+  <si>
+    <t>cc_car_credit</t>
+  </si>
+  <si>
+    <t>high_way_over_load</t>
+  </si>
+  <si>
+    <t>trustutn_loan_otheragent</t>
+  </si>
+  <si>
+    <t>LOCALE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款中介查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构G黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天网黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天网多头贷款查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天眼黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法院失信被执行人查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网贷黑名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人不良信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天网灰名单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法院被执行人查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信手机在网时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecom_mobile_online_time_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通手机在网时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动手机在网时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭安贷款逾期信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭安贷款黑名单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91征信查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请数据查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人基本信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预授信信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS地址查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码归属地查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭安多头贷款查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭安电话号码查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信手机身份验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通手机身份验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动手机身份验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人信车辆信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速超速信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速超载信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭安贷款其他机构查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘机人信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通金融画像查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多项身份信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业工商信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'apply_id': '%(apply_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'proposer_id': '%(proposer_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'email': '%(email)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'entity_name': '%(name)s', 'entity_id': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agentg_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianyan_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'entity_name': '%(name)s', 'entity_id': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_black_a_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geo_location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'gps_longitude': '%(longitudu)s', 'gps_latitude': '%(latitude)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>unicom_mobile_identity_s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>telecom_mobile_online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianyan_black'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': ''}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'personal_info'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'loan_agency'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'agentg_black'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianwang_black'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianwang_multi_loan'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'court_shixin_a_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net_black_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'net_black_a_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'telecom_mobile_identity_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'unicom_mobile_identity_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'yd_mobile_identity_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'china_mobile_ability'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'negative_info_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_gray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'tianwang_gray'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'court_zhixing_a_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'mobile_locale'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yd_mobile_online_time_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'data_identity': 'yd_mobile_online_time_s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人基本信息查询</t>
-  </si>
-  <si>
-    <t>贷款中介查询</t>
+    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_way_over_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'license_plate': '%(license_plate)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airline_passenger_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicom_finance_portrait_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_id_card_info_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'mobile': '%(mobile)s'}</t>
-  </si>
-  <si>
-    <t>{'mobile': '%(mobile)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
-  </si>
-  <si>
-    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
-  </si>
-  <si>
-    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构G黑名单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天网黑名单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天网多头贷款查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天眼黑名单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法院失信被执行人查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网贷黑名单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电信手机号三元素认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联通手机号三元素认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动手机号三元素认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动手机信用查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人不良信息查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天网灰名单查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法院被执行人查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码归属地查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动号码在网时长查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联通号码在网时长查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电信号码在网时长查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经纬度获取地理位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id_card_code': '%(card_id)s', 'mobile': '%(mobile)s', 'email': ''}</t>
-  </si>
-  <si>
-    <t>{'entity_name': '%(name)s', 'entity_id': '%(card_id)s'}</t>
-  </si>
-  <si>
-    <t>{'entity_name': '%(name)s', 'entity_id': '%(card_id)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'id_card_name': '%(name)s', 'id_card_code': '%(card_id)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'mobile': '%(mobile)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'gps_longitude': '%(longitude)s', 'gps_latitude': '%(latitude)s'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personal_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/personal_info/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_agency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/loan_agency/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agentg_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianwang_multi_loan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tianyan_black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>court_shixin_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telecom_mobile_identity_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yd_mobile_identity_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>china_mobile_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negative_info_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>court_zhixing_a_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile_locale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unicome_mobile_online_time_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geo_location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/geo_location/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/telecom_mobile_online/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/unicome_mobile_online_time_s/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/yd_mobile_online_time_s/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/mobile_locale/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/court_zhixing_a_s/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/tianwang_gray/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/negative_info_s/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/yd_mobile_identity_s/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/china_mobile_ability/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/unicom_mobile_identity_s/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/telecom_mobile_identity_s/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/net_black_a_s/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/court_shixin_a_s/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/tianyan_black/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/tianwang_multi_loan/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/tianwang_black/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/rule/gateway/agentg_black/</t>
+    <t>industrial_commercial_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'enterprise_name': '%(cur_company)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'phone': '%(mobile)s', 'id_card': '%(crad_id)s', 'name': '%(name)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'phone': '%(mobile)s', 'id_card': '%(crad_id)s', 'name': '%(name)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'user_name': '%(name)s', 'id_no': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'real_name': '%(name)s', 'id_card': '%(card_id)s'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未结清贷款记录查询</t>
+  </si>
+  <si>
+    <t>TMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,13 +469,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +517,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,8 +569,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,18 +905,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="45.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
@@ -836,121 +930,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -958,36 +1044,32 @@
         <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>105</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -995,36 +1077,32 @@
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1032,36 +1110,32 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1069,36 +1143,32 @@
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1106,36 +1176,32 @@
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1143,36 +1209,32 @@
         <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" ht="18" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1180,36 +1242,32 @@
         <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1217,36 +1275,32 @@
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" ht="18" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1254,332 +1308,300 @@
         <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="G13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="G14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="2">
+    <row r="15" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="2">
+      <c r="C15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1587,37 +1609,566 @@
         <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="14">
+        <v>3</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0</v>
+      </c>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75">
-      <c r="I22" s="4"/>
+      <c r="C27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="9">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="9">
+        <v>3</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" customHeight="1">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
